--- a/Code/Results/Cases/Case_3_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_147/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.529094981653429</v>
+        <v>1.390522576735691</v>
       </c>
       <c r="C2">
-        <v>0.9423964482393217</v>
+        <v>0.3045758222055497</v>
       </c>
       <c r="D2">
-        <v>0.2400929055179688</v>
+        <v>0.2514654466625217</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.350616688298331</v>
+        <v>1.636255998397132</v>
       </c>
       <c r="G2">
-        <v>0.9193017715869161</v>
+        <v>0.9425659895362344</v>
       </c>
       <c r="H2">
-        <v>0.5594562755809989</v>
+        <v>0.943676326694586</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4439350582126735</v>
+        <v>0.3495057524152685</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.056010086010929</v>
+        <v>1.254972915939959</v>
       </c>
       <c r="C3">
-        <v>0.8184371036009566</v>
+        <v>0.2673563839044846</v>
       </c>
       <c r="D3">
-        <v>0.2120882019536623</v>
+        <v>0.2445932683339294</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.234992060864784</v>
+        <v>1.62635431916712</v>
       </c>
       <c r="G3">
-        <v>0.8349699300848101</v>
+        <v>0.9349777015092116</v>
       </c>
       <c r="H3">
-        <v>0.5311370693464141</v>
+        <v>0.9474447886092605</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3904083289373546</v>
+        <v>0.3382548230859754</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.767871619733171</v>
+        <v>1.171989245069597</v>
       </c>
       <c r="C4">
-        <v>0.742777690818798</v>
+        <v>0.2444761858400284</v>
       </c>
       <c r="D4">
-        <v>0.1950748306332883</v>
+        <v>0.2404478977847759</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.168148367768012</v>
+        <v>1.621642553731348</v>
       </c>
       <c r="G4">
-        <v>0.7866920857948827</v>
+        <v>0.9313140774567472</v>
       </c>
       <c r="H4">
-        <v>0.515654086187979</v>
+        <v>0.9504766402877465</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3583283084904139</v>
+        <v>0.3315679091272159</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.650935751554755</v>
+        <v>1.138234574412536</v>
       </c>
       <c r="C5">
-        <v>0.7120340300313615</v>
+        <v>0.23514562567496</v>
       </c>
       <c r="D5">
-        <v>0.1881815160796663</v>
+        <v>0.2387773606216541</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.141861498883969</v>
+        <v>1.620064775035715</v>
       </c>
       <c r="G5">
-        <v>0.7678196438954217</v>
+        <v>0.9300697468332544</v>
       </c>
       <c r="H5">
-        <v>0.5097870131781121</v>
+        <v>0.9518920319789999</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.345430781677166</v>
+        <v>0.3288982779646972</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.631544903030772</v>
+        <v>1.132633385384452</v>
       </c>
       <c r="C6">
-        <v>0.7069336890124589</v>
+        <v>0.2335958943965579</v>
       </c>
       <c r="D6">
-        <v>0.1870391254376642</v>
+        <v>0.2385011032533129</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.137551580418759</v>
+        <v>1.619823411741933</v>
       </c>
       <c r="G6">
-        <v>0.7647320700512239</v>
+        <v>0.9298780925090568</v>
       </c>
       <c r="H6">
-        <v>0.5088384891955542</v>
+        <v>0.9521379021899037</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3432991320398173</v>
+        <v>0.3284583220005857</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.766292758852956</v>
+        <v>1.171533766789992</v>
       </c>
       <c r="C7">
-        <v>0.7423627462248135</v>
+        <v>0.2443503774998703</v>
       </c>
       <c r="D7">
-        <v>0.1949817113867311</v>
+        <v>0.2404252923652592</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.167790112634123</v>
+        <v>1.621619891499478</v>
       </c>
       <c r="G7">
-        <v>0.7864344221236053</v>
+        <v>0.9312962915995655</v>
       </c>
       <c r="H7">
-        <v>0.5155732160758504</v>
+        <v>0.9504950012828317</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3581536860287429</v>
+        <v>0.3315316818444956</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.3654240921108</v>
+        <v>1.343734519601924</v>
       </c>
       <c r="C8">
-        <v>0.8995453215961504</v>
+        <v>0.2917483181229557</v>
       </c>
       <c r="D8">
-        <v>0.2303954698524393</v>
+        <v>0.2490805711411923</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.30983075225592</v>
+        <v>1.632556977901444</v>
       </c>
       <c r="G8">
-        <v>0.8894474070518754</v>
+        <v>0.9397418611036272</v>
       </c>
       <c r="H8">
-        <v>0.5492733942874395</v>
+        <v>0.944826271961972</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.42530203263685</v>
+        <v>0.3455803462165363</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.564140017821046</v>
+        <v>1.683360796390389</v>
       </c>
       <c r="C9">
-        <v>1.212657259571415</v>
+        <v>0.3844763767526729</v>
       </c>
       <c r="D9">
-        <v>0.3015799379527522</v>
+        <v>0.266639606090294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.625829945217433</v>
+        <v>1.6649372110992</v>
       </c>
       <c r="G9">
-        <v>1.123190013980121</v>
+        <v>0.9642836860957402</v>
       </c>
       <c r="H9">
-        <v>0.6322966842080575</v>
+        <v>0.9394376334646779</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5643227820774683</v>
+        <v>0.3748995633946919</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.467616880732862</v>
+        <v>1.934099774438209</v>
       </c>
       <c r="C10">
-        <v>1.447704838040238</v>
+        <v>0.4524745006963826</v>
       </c>
       <c r="D10">
-        <v>0.3554044678579942</v>
+        <v>0.2798958999282632</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.887858015023937</v>
+        <v>1.695506466407551</v>
       </c>
       <c r="G10">
-        <v>1.320389211534888</v>
+        <v>0.9872939869356401</v>
       </c>
       <c r="H10">
-        <v>0.7064452867983846</v>
+        <v>0.9390142786266154</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6726699302105601</v>
+        <v>0.3975424788065141</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.885693444442381</v>
+        <v>2.048440787153311</v>
       </c>
       <c r="C11">
-        <v>1.55624394551171</v>
+        <v>0.4833821916792544</v>
       </c>
       <c r="D11">
-        <v>0.3803410921736088</v>
+        <v>0.2860035794087992</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.015344863955335</v>
+        <v>1.710910483712809</v>
       </c>
       <c r="G11">
-        <v>1.417197853257704</v>
+        <v>0.9988681519160139</v>
       </c>
       <c r="H11">
-        <v>0.7437569864130182</v>
+        <v>0.9395990306898057</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7237530739054847</v>
+        <v>0.4080878588138006</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.045227186227578</v>
+        <v>2.091779057084409</v>
       </c>
       <c r="C12">
-        <v>1.597626991755362</v>
+        <v>0.4950825310036748</v>
       </c>
       <c r="D12">
-        <v>0.3898601885641426</v>
+        <v>0.2883274727263085</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.064985226296443</v>
+        <v>1.716960938625007</v>
       </c>
       <c r="G12">
-        <v>1.455028393179873</v>
+        <v>1.003412092739637</v>
       </c>
       <c r="H12">
-        <v>0.7584704442365364</v>
+        <v>0.9399330080993877</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7433977980761739</v>
+        <v>0.4121167255259621</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.010811163403446</v>
+        <v>2.082443618181401</v>
       </c>
       <c r="C13">
-        <v>1.588701029576612</v>
+        <v>0.4925628216400924</v>
       </c>
       <c r="D13">
-        <v>0.3878065010140119</v>
+        <v>0.2878264904803416</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.054230652462124</v>
+        <v>1.715648170728571</v>
       </c>
       <c r="G13">
-        <v>1.446826223242738</v>
+        <v>1.002426280131743</v>
       </c>
       <c r="H13">
-        <v>0.7552744486964968</v>
+        <v>0.9398560624146057</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7391528479907663</v>
+        <v>0.4112474501547041</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.898792756395437</v>
+        <v>2.052005456127631</v>
       </c>
       <c r="C14">
-        <v>1.559642602929671</v>
+        <v>0.4843448611820804</v>
       </c>
       <c r="D14">
-        <v>0.3811226388443458</v>
+        <v>0.2861945464987343</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.019400409043627</v>
+        <v>1.711403892635872</v>
       </c>
       <c r="G14">
-        <v>1.420285793693608</v>
+        <v>0.9992387458431153</v>
       </c>
       <c r="H14">
-        <v>0.7449553313634283</v>
+        <v>0.9396242472583936</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.725362968762397</v>
+        <v>0.4084186015218165</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.830343101600477</v>
+        <v>2.033366380747566</v>
       </c>
       <c r="C15">
-        <v>1.541881732438128</v>
+        <v>0.4793106331741797</v>
       </c>
       <c r="D15">
-        <v>0.377038852126887</v>
+        <v>0.2851963703479186</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.99824897184331</v>
+        <v>1.708832503361066</v>
       </c>
       <c r="G15">
-        <v>1.404186319918779</v>
+        <v>0.9973073203651666</v>
       </c>
       <c r="H15">
-        <v>0.7387128815491337</v>
+        <v>0.9394969331623884</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7169567770665282</v>
+        <v>0.406690490885353</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.44045352832552</v>
+        <v>1.92663290380807</v>
       </c>
       <c r="C16">
-        <v>1.440648128864382</v>
+        <v>0.4504540953020069</v>
       </c>
       <c r="D16">
-        <v>0.3537848139320943</v>
+        <v>0.2794982984949854</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.879707451179215</v>
+        <v>1.694530080725514</v>
       </c>
       <c r="G16">
-        <v>1.314217837647277</v>
+        <v>0.9865600207638465</v>
       </c>
       <c r="H16">
-        <v>0.7040846720730372</v>
+        <v>0.9389917709470978</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6693711627539045</v>
+        <v>0.3968582715288278</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.203216401783891</v>
+        <v>1.861226533663967</v>
       </c>
       <c r="C17">
-        <v>1.37899140748334</v>
+        <v>0.4327450392742662</v>
       </c>
       <c r="D17">
-        <v>0.3396424180208157</v>
+        <v>0.276022468822589</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.809224734283902</v>
+        <v>1.68614099935364</v>
       </c>
       <c r="G17">
-        <v>1.260944911989753</v>
+        <v>0.9802517061977767</v>
       </c>
       <c r="H17">
-        <v>0.683805256519662</v>
+        <v>0.9388815074020158</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6406673323165251</v>
+        <v>0.3908895072477208</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.06741703674038</v>
+        <v>1.823632754164237</v>
       </c>
       <c r="C18">
-        <v>1.343676773761956</v>
+        <v>0.4225569132182727</v>
       </c>
       <c r="D18">
-        <v>0.3315498429546153</v>
+        <v>0.2740305457979844</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.769453652283048</v>
+        <v>1.681456698275412</v>
       </c>
       <c r="G18">
-        <v>1.23096216245645</v>
+        <v>0.9767273797274925</v>
       </c>
       <c r="H18">
-        <v>0.6724735103127557</v>
+        <v>0.938891207520868</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6243238060579017</v>
+        <v>0.3874794728863122</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.021544214644052</v>
+        <v>1.810908660638233</v>
       </c>
       <c r="C19">
-        <v>1.331743976504526</v>
+        <v>0.4191069903943685</v>
       </c>
       <c r="D19">
-        <v>0.3288166887216022</v>
+        <v>0.2733573678571588</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.756114982160298</v>
+        <v>1.679894812705669</v>
       </c>
       <c r="G19">
-        <v>1.220919336709727</v>
+        <v>0.9755519155593504</v>
       </c>
       <c r="H19">
-        <v>0.6686918988561388</v>
+        <v>0.9389070271675166</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6188174999087721</v>
+        <v>0.3863288412186847</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.228401735942384</v>
+        <v>1.868186440194961</v>
       </c>
       <c r="C20">
-        <v>1.385539144628751</v>
+        <v>0.4346304422927574</v>
       </c>
       <c r="D20">
-        <v>0.341143501754317</v>
+        <v>0.2763917236641049</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.816647004195445</v>
+        <v>1.68701943757479</v>
       </c>
       <c r="G20">
-        <v>1.266546734474986</v>
+        <v>0.9809124545064947</v>
       </c>
       <c r="H20">
-        <v>0.6859291542407391</v>
+        <v>0.9388856719295688</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6437054170275758</v>
+        <v>0.3915225053699629</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.931660531115995</v>
+        <v>2.060944803496852</v>
       </c>
       <c r="C21">
-        <v>1.568169697465692</v>
+        <v>0.4867587777061431</v>
       </c>
       <c r="D21">
-        <v>0.3830836885229161</v>
+        <v>0.2866735887297125</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.029592400956858</v>
+        <v>1.712644627736196</v>
       </c>
       <c r="G21">
-        <v>1.428048283423294</v>
+        <v>1.00017061558674</v>
       </c>
       <c r="H21">
-        <v>0.7479698503925647</v>
+        <v>0.9396892764472113</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7294048650880285</v>
+        <v>0.409248535198742</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.398486979570521</v>
+        <v>2.187155496186222</v>
       </c>
       <c r="C22">
-        <v>1.689198730496173</v>
+        <v>0.5208058482789966</v>
       </c>
       <c r="D22">
-        <v>0.4109440726353455</v>
+        <v>0.2934577451017901</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.176810569702354</v>
+        <v>1.730659577181953</v>
       </c>
       <c r="G22">
-        <v>1.540509738719521</v>
+        <v>1.013696590243853</v>
       </c>
       <c r="H22">
-        <v>0.7919618746807657</v>
+        <v>0.9408708322607708</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7871906914924409</v>
+        <v>0.4210409486082796</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.148601008431569</v>
+        <v>2.119773320903505</v>
       </c>
       <c r="C23">
-        <v>1.624432437441442</v>
+        <v>0.5026363236398197</v>
       </c>
       <c r="D23">
-        <v>0.3960292012526168</v>
+        <v>0.2898310467702743</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.097438488902256</v>
+        <v>1.720928063963385</v>
       </c>
       <c r="G23">
-        <v>1.47979983355998</v>
+        <v>1.006390908299068</v>
       </c>
       <c r="H23">
-        <v>0.7681419660866595</v>
+        <v>0.9401799034073406</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7561712527362374</v>
+        <v>0.4147280259293211</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.217013618951739</v>
+        <v>1.865039837736902</v>
       </c>
       <c r="C24">
-        <v>1.382578503183538</v>
+        <v>0.4337780732437295</v>
       </c>
       <c r="D24">
-        <v>0.3404647440259083</v>
+        <v>0.2762247636809008</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.813289071442085</v>
+        <v>1.686621863779465</v>
       </c>
       <c r="G24">
-        <v>1.264012153942247</v>
+        <v>0.9806134113526355</v>
       </c>
       <c r="H24">
-        <v>0.684967926179894</v>
+        <v>0.9388835615247331</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6423314077877507</v>
+        <v>0.3912362600170383</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.236507299850871</v>
+        <v>1.591271924357443</v>
       </c>
       <c r="C25">
-        <v>1.127234240497842</v>
+        <v>0.3594140354481397</v>
       </c>
       <c r="D25">
-        <v>0.2820915644440021</v>
+        <v>0.261826857838571</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.535654318473831</v>
+        <v>1.654995272167582</v>
       </c>
       <c r="G25">
-        <v>1.055967322329451</v>
+        <v>0.9567783352778321</v>
       </c>
       <c r="H25">
-        <v>0.6077503639393029</v>
+        <v>0.9402776886121273</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5257606848266221</v>
+        <v>0.3667760902878001</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_147/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.390522576735691</v>
+        <v>3.529094981653316</v>
       </c>
       <c r="C2">
-        <v>0.3045758222055497</v>
+        <v>0.9423964482393501</v>
       </c>
       <c r="D2">
-        <v>0.2514654466625217</v>
+        <v>0.2400929055179546</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.636255998397132</v>
+        <v>1.350616688298331</v>
       </c>
       <c r="G2">
-        <v>0.9425659895362344</v>
+        <v>0.9193017715869161</v>
       </c>
       <c r="H2">
-        <v>0.943676326694586</v>
+        <v>0.5594562755809989</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3495057524152685</v>
+        <v>0.4439350582126735</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.254972915939959</v>
+        <v>3.056010086010758</v>
       </c>
       <c r="C3">
-        <v>0.2673563839044846</v>
+        <v>0.8184371036010702</v>
       </c>
       <c r="D3">
-        <v>0.2445932683339294</v>
+        <v>0.2120882019536054</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.62635431916712</v>
+        <v>1.234992060864755</v>
       </c>
       <c r="G3">
-        <v>0.9349777015092116</v>
+        <v>0.8349699300848101</v>
       </c>
       <c r="H3">
-        <v>0.9474447886092605</v>
+        <v>0.5311370693464283</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3382548230859754</v>
+        <v>0.3904083289372551</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.171989245069597</v>
+        <v>2.767871619733171</v>
       </c>
       <c r="C4">
-        <v>0.2444761858400284</v>
+        <v>0.742777690818798</v>
       </c>
       <c r="D4">
-        <v>0.2404478977847759</v>
+        <v>0.1950748306333452</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.621642553731348</v>
+        <v>1.168148367767998</v>
       </c>
       <c r="G4">
-        <v>0.9313140774567472</v>
+        <v>0.7866920857949253</v>
       </c>
       <c r="H4">
-        <v>0.9504766402877465</v>
+        <v>0.515654086187979</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3315679091272159</v>
+        <v>0.3583283084904281</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.138234574412536</v>
+        <v>2.650935751554698</v>
       </c>
       <c r="C5">
-        <v>0.23514562567496</v>
+        <v>0.7120340300312193</v>
       </c>
       <c r="D5">
-        <v>0.2387773606216541</v>
+        <v>0.1881815160796094</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.620064775035715</v>
+        <v>1.141861498883969</v>
       </c>
       <c r="G5">
-        <v>0.9300697468332544</v>
+        <v>0.7678196438953222</v>
       </c>
       <c r="H5">
-        <v>0.9518920319789999</v>
+        <v>0.5097870131781264</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3288982779646972</v>
+        <v>0.3454307816771802</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.132633385384452</v>
+        <v>2.631544903030715</v>
       </c>
       <c r="C6">
-        <v>0.2335958943965579</v>
+        <v>0.706933689012601</v>
       </c>
       <c r="D6">
-        <v>0.2385011032533129</v>
+        <v>0.1870391254377637</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.619823411741933</v>
+        <v>1.137551580418773</v>
       </c>
       <c r="G6">
-        <v>0.9298780925090568</v>
+        <v>0.764732070051295</v>
       </c>
       <c r="H6">
-        <v>0.9521379021899037</v>
+        <v>0.5088384891956537</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3284583220005857</v>
+        <v>0.3432991320398173</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.171533766789992</v>
+        <v>2.766292758852899</v>
       </c>
       <c r="C7">
-        <v>0.2443503774998703</v>
+        <v>0.7423627462246429</v>
       </c>
       <c r="D7">
-        <v>0.2404252923652592</v>
+        <v>0.1949817113868448</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.621619891499478</v>
+        <v>1.167790112634094</v>
       </c>
       <c r="G7">
-        <v>0.9312962915995655</v>
+        <v>0.786434422123591</v>
       </c>
       <c r="H7">
-        <v>0.9504950012828317</v>
+        <v>0.5155732160758504</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3315316818444956</v>
+        <v>0.3581536860287713</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.343734519601924</v>
+        <v>3.365424092110686</v>
       </c>
       <c r="C8">
-        <v>0.2917483181229557</v>
+        <v>0.8995453215960367</v>
       </c>
       <c r="D8">
-        <v>0.2490805711411923</v>
+        <v>0.2303954698524535</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.632556977901444</v>
+        <v>1.309830752255905</v>
       </c>
       <c r="G8">
-        <v>0.9397418611036272</v>
+        <v>0.8894474070518896</v>
       </c>
       <c r="H8">
-        <v>0.944826271961972</v>
+        <v>0.5492733942874395</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3455803462165363</v>
+        <v>0.4253020326368073</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.683360796390389</v>
+        <v>4.564140017821046</v>
       </c>
       <c r="C9">
-        <v>0.3844763767526729</v>
+        <v>1.212657259571472</v>
       </c>
       <c r="D9">
-        <v>0.266639606090294</v>
+        <v>0.3015799379528659</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.6649372110992</v>
+        <v>1.625829945217447</v>
       </c>
       <c r="G9">
-        <v>0.9642836860957402</v>
+        <v>1.123190013980064</v>
       </c>
       <c r="H9">
-        <v>0.9394376334646779</v>
+        <v>0.6322966842080291</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3748995633946919</v>
+        <v>0.5643227820775252</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.934099774438209</v>
+        <v>5.467616880732862</v>
       </c>
       <c r="C10">
-        <v>0.4524745006963826</v>
+        <v>1.447704838040352</v>
       </c>
       <c r="D10">
-        <v>0.2798958999282632</v>
+        <v>0.35540446785798</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.695506466407551</v>
+        <v>1.887858015023937</v>
       </c>
       <c r="G10">
-        <v>0.9872939869356401</v>
+        <v>1.320389211534916</v>
       </c>
       <c r="H10">
-        <v>0.9390142786266154</v>
+        <v>0.706445286798413</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3975424788065141</v>
+        <v>0.6726699302104606</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.048440787153311</v>
+        <v>5.885693444442381</v>
       </c>
       <c r="C11">
-        <v>0.4833821916792544</v>
+        <v>1.556243945511937</v>
       </c>
       <c r="D11">
-        <v>0.2860035794087992</v>
+        <v>0.3803410921734809</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.710910483712809</v>
+        <v>2.015344863955377</v>
       </c>
       <c r="G11">
-        <v>0.9988681519160139</v>
+        <v>1.417197853257676</v>
       </c>
       <c r="H11">
-        <v>0.9395990306898057</v>
+        <v>0.7437569864129046</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4080878588138006</v>
+        <v>0.7237530739053426</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.091779057084409</v>
+        <v>6.045227186227692</v>
       </c>
       <c r="C12">
-        <v>0.4950825310036748</v>
+        <v>1.597626991755476</v>
       </c>
       <c r="D12">
-        <v>0.2883274727263085</v>
+        <v>0.3898601885642279</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.716960938625007</v>
+        <v>2.064985226296457</v>
       </c>
       <c r="G12">
-        <v>1.003412092739637</v>
+        <v>1.455028393179788</v>
       </c>
       <c r="H12">
-        <v>0.9399330080993877</v>
+        <v>0.7584704442365364</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4121167255259621</v>
+        <v>0.743397798076046</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.082443618181401</v>
+        <v>6.010811163403503</v>
       </c>
       <c r="C13">
-        <v>0.4925628216400924</v>
+        <v>1.588701029576725</v>
       </c>
       <c r="D13">
-        <v>0.2878264904803416</v>
+        <v>0.3878065010142393</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.715648170728571</v>
+        <v>2.05423065246211</v>
       </c>
       <c r="G13">
-        <v>1.002426280131743</v>
+        <v>1.446826223242681</v>
       </c>
       <c r="H13">
-        <v>0.9398560624146057</v>
+        <v>0.7552744486964968</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4112474501547041</v>
+        <v>0.7391528479906952</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.052005456127631</v>
+        <v>5.898792756395494</v>
       </c>
       <c r="C14">
-        <v>0.4843448611820804</v>
+        <v>1.559642602929728</v>
       </c>
       <c r="D14">
-        <v>0.2861945464987343</v>
+        <v>0.3811226388444311</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.711403892635872</v>
+        <v>2.019400409043627</v>
       </c>
       <c r="G14">
-        <v>0.9992387458431153</v>
+        <v>1.420285793693637</v>
       </c>
       <c r="H14">
-        <v>0.9396242472583936</v>
+        <v>0.7449553313635136</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4084186015218165</v>
+        <v>0.7253629687624397</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.033366380747566</v>
+        <v>5.830343101600477</v>
       </c>
       <c r="C15">
-        <v>0.4793106331741797</v>
+        <v>1.541881732438242</v>
       </c>
       <c r="D15">
-        <v>0.2851963703479186</v>
+        <v>0.377038852126887</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.708832503361066</v>
+        <v>1.998248971843324</v>
       </c>
       <c r="G15">
-        <v>0.9973073203651666</v>
+        <v>1.404186319918722</v>
       </c>
       <c r="H15">
-        <v>0.9394969331623884</v>
+        <v>0.7387128815492474</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.406690490885353</v>
+        <v>0.7169567770664855</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.92663290380807</v>
+        <v>5.440453528325577</v>
       </c>
       <c r="C16">
-        <v>0.4504540953020069</v>
+        <v>1.440648128864439</v>
       </c>
       <c r="D16">
-        <v>0.2794982984949854</v>
+        <v>0.3537848139322222</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.694530080725514</v>
+        <v>1.879707451179229</v>
       </c>
       <c r="G16">
-        <v>0.9865600207638465</v>
+        <v>1.314217837647277</v>
       </c>
       <c r="H16">
-        <v>0.9389917709470978</v>
+        <v>0.7040846720730087</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3968582715288278</v>
+        <v>0.6693711627540182</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.861226533663967</v>
+        <v>5.203216401783948</v>
       </c>
       <c r="C17">
-        <v>0.4327450392742662</v>
+        <v>1.37899140748317</v>
       </c>
       <c r="D17">
-        <v>0.276022468822589</v>
+        <v>0.3396424180207021</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.68614099935364</v>
+        <v>1.809224734283902</v>
       </c>
       <c r="G17">
-        <v>0.9802517061977767</v>
+        <v>1.260944911989725</v>
       </c>
       <c r="H17">
-        <v>0.9388815074020158</v>
+        <v>0.6838052565196904</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3908895072477208</v>
+        <v>0.6406673323164398</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.823632754164237</v>
+        <v>5.067417036740494</v>
       </c>
       <c r="C18">
-        <v>0.4225569132182727</v>
+        <v>1.343676773761899</v>
       </c>
       <c r="D18">
-        <v>0.2740305457979844</v>
+        <v>0.3315498429544022</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.681456698275412</v>
+        <v>1.769453652283048</v>
       </c>
       <c r="G18">
-        <v>0.9767273797274925</v>
+        <v>1.230962162456507</v>
       </c>
       <c r="H18">
-        <v>0.938891207520868</v>
+        <v>0.6724735103126136</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3874794728863122</v>
+        <v>0.6243238060579444</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.810908660638233</v>
+        <v>5.021544214643995</v>
       </c>
       <c r="C19">
-        <v>0.4191069903943685</v>
+        <v>1.331743976504754</v>
       </c>
       <c r="D19">
-        <v>0.2733573678571588</v>
+        <v>0.3288166887215311</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.679894812705669</v>
+        <v>1.756114982160298</v>
       </c>
       <c r="G19">
-        <v>0.9755519155593504</v>
+        <v>1.220919336709727</v>
       </c>
       <c r="H19">
-        <v>0.9389070271675166</v>
+        <v>0.6686918988559967</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3863288412186847</v>
+        <v>0.6188174999087721</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.868186440194961</v>
+        <v>5.228401735942384</v>
       </c>
       <c r="C20">
-        <v>0.4346304422927574</v>
+        <v>1.385539144628922</v>
       </c>
       <c r="D20">
-        <v>0.2763917236641049</v>
+        <v>0.341143501754118</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.68701943757479</v>
+        <v>1.816647004195431</v>
       </c>
       <c r="G20">
-        <v>0.9809124545064947</v>
+        <v>1.266546734475014</v>
       </c>
       <c r="H20">
-        <v>0.9388856719295688</v>
+        <v>0.6859291542408528</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3915225053699629</v>
+        <v>0.64370541702759</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.060944803496852</v>
+        <v>5.931660531115995</v>
       </c>
       <c r="C21">
-        <v>0.4867587777061431</v>
+        <v>1.568169697465748</v>
       </c>
       <c r="D21">
-        <v>0.2866735887297125</v>
+        <v>0.3830836885228166</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.712644627736196</v>
+        <v>2.029592400956844</v>
       </c>
       <c r="G21">
-        <v>1.00017061558674</v>
+        <v>1.428048283423323</v>
       </c>
       <c r="H21">
-        <v>0.9396892764472113</v>
+        <v>0.7479698503925647</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.409248535198742</v>
+        <v>0.7294048650878722</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.187155496186222</v>
+        <v>6.398486979570635</v>
       </c>
       <c r="C22">
-        <v>0.5208058482789966</v>
+        <v>1.689198730496457</v>
       </c>
       <c r="D22">
-        <v>0.2934577451017901</v>
+        <v>0.4109440726353171</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.730659577181953</v>
+        <v>2.176810569702411</v>
       </c>
       <c r="G22">
-        <v>1.013696590243853</v>
+        <v>1.540509738719521</v>
       </c>
       <c r="H22">
-        <v>0.9408708322607708</v>
+        <v>0.7919618746807373</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4210409486082796</v>
+        <v>0.7871906914923841</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.119773320903505</v>
+        <v>6.148601008431456</v>
       </c>
       <c r="C23">
-        <v>0.5026363236398197</v>
+        <v>1.624432437441158</v>
       </c>
       <c r="D23">
-        <v>0.2898310467702743</v>
+        <v>0.3960292012527304</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.720928063963385</v>
+        <v>2.09743848890227</v>
       </c>
       <c r="G23">
-        <v>1.006390908299068</v>
+        <v>1.479799833559923</v>
       </c>
       <c r="H23">
-        <v>0.9401799034073406</v>
+        <v>0.7681419660866879</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4147280259293211</v>
+        <v>0.7561712527361522</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.865039837736902</v>
+        <v>5.217013618951682</v>
       </c>
       <c r="C24">
-        <v>0.4337780732437295</v>
+        <v>1.382578503183481</v>
       </c>
       <c r="D24">
-        <v>0.2762247636809008</v>
+        <v>0.3404647440259367</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.686621863779465</v>
+        <v>1.813289071442085</v>
       </c>
       <c r="G24">
-        <v>0.9806134113526355</v>
+        <v>1.264012153942218</v>
       </c>
       <c r="H24">
-        <v>0.9388835615247331</v>
+        <v>0.684967926179894</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3912362600170383</v>
+        <v>0.6423314077877649</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.591271924357443</v>
+        <v>4.236507299850757</v>
       </c>
       <c r="C25">
-        <v>0.3594140354481397</v>
+        <v>1.127234240497501</v>
       </c>
       <c r="D25">
-        <v>0.261826857838571</v>
+        <v>0.2820915644439452</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.654995272167582</v>
+        <v>1.535654318473817</v>
       </c>
       <c r="G25">
-        <v>0.9567783352778321</v>
+        <v>1.055967322329423</v>
       </c>
       <c r="H25">
-        <v>0.9402776886121273</v>
+        <v>0.6077503639392603</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3667760902878001</v>
+        <v>0.5257606848267216</v>
       </c>
       <c r="K25">
         <v>0</v>
